--- a/artfynd/A 62861-2025 artfynd.xlsx
+++ b/artfynd/A 62861-2025 artfynd.xlsx
@@ -1255,10 +1255,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130800713</v>
+        <v>130800726</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>489149</v>
+        <v>489323</v>
       </c>
       <c r="R7" t="n">
-        <v>6720123</v>
+        <v>6720025</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:26</t>
+          <t>11:51</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1362,10 +1362,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130800726</v>
+        <v>130800713</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>489323</v>
+        <v>489149</v>
       </c>
       <c r="R8" t="n">
-        <v>6720025</v>
+        <v>6720123</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>11:26</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1469,10 +1469,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130800706</v>
+        <v>130800721</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489143</v>
+        <v>489189</v>
       </c>
       <c r="R9" t="n">
-        <v>6720009</v>
+        <v>6720073</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1579,7 +1579,7 @@
         <v>130800693</v>
       </c>
       <c r="B10" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         <v>130800672</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1790,10 +1790,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130800721</v>
+        <v>130800627</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>57881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1801,34 +1801,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489189</v>
+        <v>489163</v>
       </c>
       <c r="R12" t="n">
-        <v>6720073</v>
+        <v>6719987</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1860,7 +1865,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1870,7 +1875,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1900,7 +1905,7 @@
         <v>130800622</v>
       </c>
       <c r="B13" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2009,10 +2014,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130800627</v>
+        <v>130800706</v>
       </c>
       <c r="B14" t="n">
-        <v>57877</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2020,39 +2025,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489163</v>
+        <v>489143</v>
       </c>
       <c r="R14" t="n">
-        <v>6719987</v>
+        <v>6720009</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2121,10 +2121,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130800671</v>
+        <v>130800609</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>91808</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2132,21 +2132,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2156,10 +2156,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>489159</v>
+        <v>489172</v>
       </c>
       <c r="R15" t="n">
-        <v>6720170</v>
+        <v>6720186</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2228,45 +2228,50 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130800609</v>
+        <v>130800641</v>
       </c>
       <c r="B16" t="n">
-        <v>91804</v>
+        <v>8451</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>106545</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>489172</v>
+        <v>489210</v>
       </c>
       <c r="R16" t="n">
-        <v>6720186</v>
+        <v>6720036</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2298,7 +2303,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2308,7 +2313,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2317,6 +2322,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2335,45 +2341,50 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130800689</v>
+        <v>130800634</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>8451</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>489171</v>
+        <v>489196</v>
       </c>
       <c r="R17" t="n">
-        <v>6720037</v>
+        <v>6720103</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2405,7 +2416,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2415,7 +2426,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>11:33</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2424,6 +2435,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2442,50 +2454,45 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130800641</v>
+        <v>130800671</v>
       </c>
       <c r="B18" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>489210</v>
+        <v>489159</v>
       </c>
       <c r="R18" t="n">
-        <v>6720036</v>
+        <v>6720170</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2517,7 +2524,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2527,7 +2534,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2536,7 +2543,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2555,50 +2561,45 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130800634</v>
+        <v>130800689</v>
       </c>
       <c r="B19" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>489196</v>
+        <v>489171</v>
       </c>
       <c r="R19" t="n">
-        <v>6720103</v>
+        <v>6720037</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2630,7 +2631,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2640,7 +2641,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:33</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2649,7 +2650,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>130800710</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>130800668</v>
       </c>
       <c r="B21" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2885,7 +2885,7 @@
         <v>130800621</v>
       </c>
       <c r="B22" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>130800690</v>
       </c>
       <c r="B23" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>130800718</v>
       </c>
       <c r="B24" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>130800682</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3315,32 +3315,32 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130800606</v>
+        <v>130800725</v>
       </c>
       <c r="B26" t="n">
-        <v>92175</v>
+        <v>79243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2062</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3350,10 +3350,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>489169</v>
+        <v>489332</v>
       </c>
       <c r="R26" t="n">
-        <v>6720185</v>
+        <v>6720052</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>10:07</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>10:07</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3422,32 +3422,32 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130800695</v>
+        <v>130800606</v>
       </c>
       <c r="B27" t="n">
-        <v>79239</v>
+        <v>92179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>2062</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3457,10 +3457,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489231</v>
+        <v>489169</v>
       </c>
       <c r="R27" t="n">
-        <v>6719941</v>
+        <v>6720185</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>10:07</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>10:56</t>
+          <t>10:07</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3529,10 +3529,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130800687</v>
+        <v>130800695</v>
       </c>
       <c r="B28" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>489175</v>
+        <v>489231</v>
       </c>
       <c r="R28" t="n">
-        <v>6720053</v>
+        <v>6719941</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>10:23</t>
+          <t>10:56</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3636,10 +3636,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130800725</v>
+        <v>130800687</v>
       </c>
       <c r="B29" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3671,10 +3671,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>489332</v>
+        <v>489175</v>
       </c>
       <c r="R29" t="n">
-        <v>6720052</v>
+        <v>6720053</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>10:23</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3746,7 +3746,7 @@
         <v>130800696</v>
       </c>
       <c r="B30" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>130800688</v>
       </c>
       <c r="B31" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>130800678</v>
       </c>
       <c r="B32" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         <v>130800716</v>
       </c>
       <c r="B33" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>130800669</v>
       </c>
       <c r="B34" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>130800712</v>
       </c>
       <c r="B35" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4385,10 +4385,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130800679</v>
+        <v>130800676</v>
       </c>
       <c r="B36" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>489122</v>
+        <v>489151</v>
       </c>
       <c r="R36" t="n">
-        <v>6720120</v>
+        <v>6720144</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:13</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4492,10 +4492,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130800676</v>
+        <v>130800666</v>
       </c>
       <c r="B37" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4527,10 +4527,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>489151</v>
+        <v>489208</v>
       </c>
       <c r="R37" t="n">
-        <v>6720144</v>
+        <v>6720174</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>10:13</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4599,10 +4599,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130800666</v>
+        <v>130800679</v>
       </c>
       <c r="B38" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4634,10 +4634,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>489208</v>
+        <v>489122</v>
       </c>
       <c r="R38" t="n">
-        <v>6720174</v>
+        <v>6720120</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4709,7 +4709,7 @@
         <v>130800608</v>
       </c>
       <c r="B39" t="n">
-        <v>92175</v>
+        <v>92179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>130800714</v>
       </c>
       <c r="B40" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4923,7 +4923,7 @@
         <v>130800707</v>
       </c>
       <c r="B41" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>130800677</v>
       </c>
       <c r="B42" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5134,10 +5134,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>130800681</v>
+        <v>130800709</v>
       </c>
       <c r="B43" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5169,10 +5169,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>489138</v>
+        <v>489094</v>
       </c>
       <c r="R43" t="n">
-        <v>6720092</v>
+        <v>6720086</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5241,10 +5241,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130800684</v>
+        <v>130800667</v>
       </c>
       <c r="B44" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5276,10 +5276,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>489177</v>
+        <v>489199</v>
       </c>
       <c r="R44" t="n">
-        <v>6720066</v>
+        <v>6720176</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5348,10 +5348,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130800709</v>
+        <v>130800681</v>
       </c>
       <c r="B45" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5383,10 +5383,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>489094</v>
+        <v>489138</v>
       </c>
       <c r="R45" t="n">
-        <v>6720086</v>
+        <v>6720092</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5418,7 +5418,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5455,10 +5455,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>130800667</v>
+        <v>130800684</v>
       </c>
       <c r="B46" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5490,10 +5490,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>489199</v>
+        <v>489177</v>
       </c>
       <c r="R46" t="n">
-        <v>6720176</v>
+        <v>6720066</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5525,7 +5525,7 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5565,7 +5565,7 @@
         <v>130800722</v>
       </c>
       <c r="B47" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         <v>130800704</v>
       </c>
       <c r="B48" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5779,7 +5779,7 @@
         <v>130800715</v>
       </c>
       <c r="B49" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>130800610</v>
       </c>
       <c r="B50" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5990,10 +5990,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>130800630</v>
+        <v>130800673</v>
       </c>
       <c r="B51" t="n">
-        <v>57877</v>
+        <v>79243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6001,39 +6001,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>489207</v>
+        <v>489180</v>
       </c>
       <c r="R51" t="n">
-        <v>6720041</v>
+        <v>6720180</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6065,7 +6060,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
@@ -6075,7 +6070,7 @@
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:10</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6102,10 +6097,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130800673</v>
+        <v>130800630</v>
       </c>
       <c r="B52" t="n">
-        <v>79239</v>
+        <v>57881</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6113,34 +6108,39 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>489180</v>
+        <v>489207</v>
       </c>
       <c r="R52" t="n">
-        <v>6720180</v>
+        <v>6720041</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>10:10</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6212,7 +6212,7 @@
         <v>130800675</v>
       </c>
       <c r="B53" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6316,10 +6316,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130800680</v>
+        <v>130800683</v>
       </c>
       <c r="B54" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6351,10 +6351,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>489131</v>
+        <v>489169</v>
       </c>
       <c r="R54" t="n">
-        <v>6720110</v>
+        <v>6720075</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6423,10 +6423,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130800683</v>
+        <v>130800680</v>
       </c>
       <c r="B55" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6458,10 +6458,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>489169</v>
+        <v>489131</v>
       </c>
       <c r="R55" t="n">
-        <v>6720075</v>
+        <v>6720110</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6755,10 +6755,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>130800619</v>
+        <v>130800702</v>
       </c>
       <c r="B58" t="n">
-        <v>57877</v>
+        <v>79243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6766,39 +6766,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>489184</v>
+        <v>489258</v>
       </c>
       <c r="R58" t="n">
-        <v>6720170</v>
+        <v>6719949</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6830,7 +6825,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -6840,7 +6835,7 @@
       </c>
       <c r="AB58" t="inlineStr">
         <is>
-          <t>10:08</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6867,50 +6862,45 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>130800768</v>
+        <v>130800708</v>
       </c>
       <c r="B59" t="n">
-        <v>5177</v>
+        <v>79243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100526</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>489234</v>
+        <v>489077</v>
       </c>
       <c r="R59" t="n">
-        <v>6719934</v>
+        <v>6720065</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6942,7 +6932,7 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
@@ -6952,7 +6942,7 @@
       </c>
       <c r="AB59" t="inlineStr">
         <is>
-          <t>10:57</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6979,10 +6969,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>130800691</v>
+        <v>130800705</v>
       </c>
       <c r="B60" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7014,10 +7004,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>489214</v>
+        <v>489144</v>
       </c>
       <c r="R60" t="n">
-        <v>6720016</v>
+        <v>6719996</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7049,7 +7039,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -7059,7 +7049,7 @@
       </c>
       <c r="AB60" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>11:12</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7086,10 +7076,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>130800702</v>
+        <v>130800619</v>
       </c>
       <c r="B61" t="n">
-        <v>79239</v>
+        <v>57881</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7097,34 +7087,39 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>489258</v>
+        <v>489184</v>
       </c>
       <c r="R61" t="n">
-        <v>6719949</v>
+        <v>6720170</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7156,7 +7151,7 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
@@ -7166,7 +7161,7 @@
       </c>
       <c r="AB61" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>10:08</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7193,10 +7188,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>130800708</v>
+        <v>130800691</v>
       </c>
       <c r="B62" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7228,10 +7223,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>489077</v>
+        <v>489214</v>
       </c>
       <c r="R62" t="n">
-        <v>6720065</v>
+        <v>6720016</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7263,7 +7258,7 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -7273,7 +7268,7 @@
       </c>
       <c r="AB62" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7300,45 +7295,50 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>130800705</v>
+        <v>130800768</v>
       </c>
       <c r="B63" t="n">
-        <v>79239</v>
+        <v>5177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>100526</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>489144</v>
+        <v>489234</v>
       </c>
       <c r="R63" t="n">
-        <v>6719996</v>
+        <v>6719934</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>11:12</t>
+          <t>10:57</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7410,7 +7410,7 @@
         <v>130800674</v>
       </c>
       <c r="B64" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7517,7 +7517,7 @@
         <v>130800665</v>
       </c>
       <c r="B65" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>130800694</v>
       </c>
       <c r="B66" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>130800692</v>
       </c>
       <c r="B67" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7835,10 +7835,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>130800620</v>
+        <v>130800711</v>
       </c>
       <c r="B68" t="n">
-        <v>57877</v>
+        <v>79243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7846,39 +7846,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P68" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>489144</v>
+        <v>489138</v>
       </c>
       <c r="R68" t="n">
-        <v>6720087</v>
+        <v>6720109</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7910,7 +7905,7 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
@@ -7920,7 +7915,7 @@
       </c>
       <c r="AB68" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7947,10 +7942,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130800711</v>
+        <v>130800620</v>
       </c>
       <c r="B69" t="n">
-        <v>79239</v>
+        <v>57881</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7958,34 +7953,39 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>489138</v>
+        <v>489144</v>
       </c>
       <c r="R69" t="n">
-        <v>6720109</v>
+        <v>6720087</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8027,7 +8027,7 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="AD69" t="b">

--- a/artfynd/A 62861-2025 artfynd.xlsx
+++ b/artfynd/A 62861-2025 artfynd.xlsx
@@ -1469,7 +1469,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130800721</v>
+        <v>130800693</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>489189</v>
+        <v>489211</v>
       </c>
       <c r="R9" t="n">
-        <v>6720073</v>
+        <v>6720001</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>10:42</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1576,7 +1576,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130800693</v>
+        <v>130800672</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>489211</v>
+        <v>489170</v>
       </c>
       <c r="R10" t="n">
-        <v>6720001</v>
+        <v>6720188</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:42</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1683,10 +1683,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130800672</v>
+        <v>130800627</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1694,34 +1694,39 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>489170</v>
+        <v>489163</v>
       </c>
       <c r="R11" t="n">
-        <v>6720188</v>
+        <v>6719987</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1753,7 +1758,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1763,7 +1768,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1790,7 +1795,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130800627</v>
+        <v>130800622</v>
       </c>
       <c r="B12" t="n">
         <v>57881</v>
@@ -1821,7 +1826,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1830,10 +1835,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>489163</v>
+        <v>489171</v>
       </c>
       <c r="R12" t="n">
-        <v>6719987</v>
+        <v>6720048</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1865,7 +1870,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1875,7 +1880,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1902,10 +1907,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130800622</v>
+        <v>130800706</v>
       </c>
       <c r="B13" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1913,39 +1918,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>489171</v>
+        <v>489143</v>
       </c>
       <c r="R13" t="n">
-        <v>6720048</v>
+        <v>6720009</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>10:24</t>
+          <t>11:13</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2014,7 +2014,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130800706</v>
+        <v>130800721</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -2049,10 +2049,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>489143</v>
+        <v>489189</v>
       </c>
       <c r="R14" t="n">
-        <v>6720009</v>
+        <v>6720073</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -3315,32 +3315,32 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130800725</v>
+        <v>130800606</v>
       </c>
       <c r="B26" t="n">
-        <v>79243</v>
+        <v>92179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>2062</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3350,10 +3350,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>489332</v>
+        <v>489169</v>
       </c>
       <c r="R26" t="n">
-        <v>6720052</v>
+        <v>6720185</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>10:07</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>11:50</t>
+          <t>10:07</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3422,32 +3422,32 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130800606</v>
+        <v>130800725</v>
       </c>
       <c r="B27" t="n">
-        <v>92179</v>
+        <v>79243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2062</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3457,10 +3457,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>489169</v>
+        <v>489332</v>
       </c>
       <c r="R27" t="n">
-        <v>6720185</v>
+        <v>6720052</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>10:07</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>10:07</t>
+          <t>11:50</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -4171,7 +4171,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130800669</v>
+        <v>130800712</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -4206,10 +4206,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>489170</v>
+        <v>489143</v>
       </c>
       <c r="R34" t="n">
-        <v>6720167</v>
+        <v>6720114</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>10:03</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4278,7 +4278,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130800712</v>
+        <v>130800669</v>
       </c>
       <c r="B35" t="n">
         <v>79243</v>
@@ -4313,10 +4313,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>489143</v>
+        <v>489170</v>
       </c>
       <c r="R35" t="n">
-        <v>6720114</v>
+        <v>6720167</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>10:03</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -6316,7 +6316,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130800683</v>
+        <v>130800680</v>
       </c>
       <c r="B54" t="n">
         <v>79243</v>
@@ -6351,10 +6351,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>489169</v>
+        <v>489131</v>
       </c>
       <c r="R54" t="n">
-        <v>6720075</v>
+        <v>6720110</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>10:20</t>
+          <t>10:16</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6423,45 +6423,50 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130800680</v>
+        <v>130800637</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>8451</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>106545</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>489131</v>
+        <v>489091</v>
       </c>
       <c r="R55" t="n">
-        <v>6720110</v>
+        <v>6720083</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6493,7 +6498,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6503,7 +6508,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>11:19</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6512,6 +6517,7 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
@@ -6530,50 +6536,45 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130800637</v>
+        <v>130800683</v>
       </c>
       <c r="B56" t="n">
-        <v>8451</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>106545</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Skinnaråsen, Dlr</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>489091</v>
+        <v>489169</v>
       </c>
       <c r="R56" t="n">
-        <v>6720083</v>
+        <v>6720075</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6605,7 +6606,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -6615,7 +6616,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>11:19</t>
+          <t>10:20</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6624,7 +6625,6 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
